--- a/03_Outputs/all/idx6_crecimiento_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx6_crecimiento_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.2201371917231555</v>
       </c>
+      <c r="D2">
+        <v>0.06225914244128169</v>
+      </c>
+      <c r="E2">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>-0.09184957136060157</v>
       </c>
+      <c r="D3">
+        <v>0.02597687152156422</v>
+      </c>
+      <c r="E3">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.08185034997707709</v>
       </c>
+      <c r="D4">
+        <v>0.02314889436992657</v>
+      </c>
+      <c r="E4">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>0.3139753769604648</v>
       </c>
+      <c r="D5">
+        <v>0.08879843321441137</v>
+      </c>
+      <c r="E5">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>-0.06345112946265816</v>
       </c>
+      <c r="D6">
+        <v>0.01794523168190443</v>
+      </c>
+      <c r="E6">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>0.1370165901607264</v>
       </c>
+      <c r="D7">
+        <v>0.03875099585336485</v>
+      </c>
+      <c r="E7">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.2129525243200776</v>
       </c>
+      <c r="D8">
+        <v>0.06022717670327955</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>0.3673470947149454</v>
       </c>
+      <c r="D9">
+        <v>0.103893008338232</v>
+      </c>
+      <c r="E9">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>0.2236838887256625</v>
       </c>
+      <c r="D10">
+        <v>0.06326221835111182</v>
+      </c>
+      <c r="E10">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>0.1906354115149547</v>
       </c>
+      <c r="D11">
+        <v>0.05391545675202451</v>
+      </c>
+      <c r="E11">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>0.1649110051204074</v>
       </c>
+      <c r="D12">
+        <v>0.04664008692742129</v>
+      </c>
+      <c r="E12">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>-0.2339440581009816</v>
       </c>
+      <c r="D13">
+        <v>0.06616399674489186</v>
+      </c>
+      <c r="E13">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>-0.06296793089293871</v>
       </c>
+      <c r="D14">
+        <v>0.01780857358999319</v>
+      </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>-0.3316053127220153</v>
       </c>
+      <c r="D15">
+        <v>0.09378452699173816</v>
+      </c>
+      <c r="E15">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>-0.4117682952776343</v>
       </c>
+      <c r="D16">
+        <v>0.1164562005530362</v>
+      </c>
+      <c r="E16">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>-0.4277254044844371</v>
       </c>
+      <c r="D17">
+        <v>0.1209691859658183</v>
+      </c>
+      <c r="E17">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>0.03019167183079309</v>
       </c>
+      <c r="D18">
+        <v>0.01068724624224353</v>
+      </c>
+      <c r="E18">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>-0.01770554837788315</v>
       </c>
+      <c r="D19">
+        <v>0.006267408987116768</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>-0.1089337771501772</v>
       </c>
+      <c r="D20">
+        <v>0.03856037211275701</v>
+      </c>
+      <c r="E20">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>-0.05259105726053059</v>
       </c>
+      <c r="D21">
+        <v>0.01861617939653048</v>
+      </c>
+      <c r="E21">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>-0.4805166039594546</v>
       </c>
+      <c r="D22">
+        <v>0.1700932395788566</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>-0.50704674107996</v>
       </c>
+      <c r="D23">
+        <v>0.1794843759768796</v>
+      </c>
+      <c r="E23">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>-0.5498130860531243</v>
       </c>
+      <c r="D24">
+        <v>0.1946228042881857</v>
+      </c>
+      <c r="E24">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>-0.03852893594841576</v>
       </c>
+      <c r="D25">
+        <v>0.01363847051067829</v>
+      </c>
+      <c r="E25">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>-0.2022449981371038</v>
       </c>
+      <c r="D26">
+        <v>0.0715906727016294</v>
+      </c>
+      <c r="E26">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>-0.09969284860711172</v>
       </c>
+      <c r="D27">
+        <v>0.03528926876345558</v>
+      </c>
+      <c r="E27">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>0.06537338848651801</v>
       </c>
+      <c r="D28">
+        <v>0.02314086826197837</v>
+      </c>
+      <c r="E28">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>-0.06632920311066592</v>
       </c>
+      <c r="D29">
+        <v>0.02347920746715573</v>
+      </c>
+      <c r="E29">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>-0.01161211106300815</v>
       </c>
+      <c r="D30">
+        <v>0.004110454400079785</v>
+      </c>
+      <c r="E30">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>-0.2891552753033069</v>
       </c>
+      <c r="D31">
+        <v>0.1023551675683732</v>
+      </c>
+      <c r="E31">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>-0.1172053407873456</v>
       </c>
+      <c r="D32">
+        <v>0.04148833972893404</v>
+      </c>
+      <c r="E32">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>-0.1880782386908996</v>
       </c>
+      <c r="D33">
+        <v>0.0665759240151458</v>
+      </c>
+      <c r="E33">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>0.3682572671816083</v>
       </c>
+      <c r="D34">
+        <v>0.1184923840156084</v>
+      </c>
+      <c r="E34">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>0.244226984280842</v>
       </c>
+      <c r="D35">
+        <v>0.0785837515980588</v>
+      </c>
+      <c r="E35">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>-0.02084896384648329</v>
       </c>
+      <c r="D36">
+        <v>0.006708471632704318</v>
+      </c>
+      <c r="E36">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>0.4389256029128122</v>
       </c>
+      <c r="D37">
+        <v>0.1412309972663178</v>
+      </c>
+      <c r="E37">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>-0.04116234799713576</v>
       </c>
+      <c r="D38">
+        <v>0.01324461234177189</v>
+      </c>
+      <c r="E38">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>-0.1050489636764025</v>
       </c>
+      <c r="D39">
+        <v>0.03380110388493002</v>
+      </c>
+      <c r="E39">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>0.08271440963031855</v>
       </c>
+      <c r="D40">
+        <v>0.02661462098100729</v>
+      </c>
+      <c r="E40">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>0.1924428938440574</v>
       </c>
+      <c r="D41">
+        <v>0.06192143186464143</v>
+      </c>
+      <c r="E41">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>-0.1096535091810707</v>
       </c>
+      <c r="D42">
+        <v>0.03528268652505596</v>
+      </c>
+      <c r="E42">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>-0.3890012783434504</v>
       </c>
+      <c r="D43">
+        <v>0.1251670855236736</v>
+      </c>
+      <c r="E43">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>0.1361930823416679</v>
       </c>
+      <c r="D44">
+        <v>0.04382219836856555</v>
+      </c>
+      <c r="E44">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>0.0776711922710635</v>
       </c>
+      <c r="D45">
+        <v>0.02499188899100334</v>
+      </c>
+      <c r="E45">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>0.5566262666314726</v>
       </c>
+      <c r="D46">
+        <v>0.1791029783163635</v>
+      </c>
+      <c r="E46">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>0.04763260779988867</v>
       </c>
+      <c r="D47">
+        <v>0.01532651697082694</v>
+      </c>
+      <c r="E47">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>0.07532070586240984</v>
       </c>
+      <c r="D48">
+        <v>0.02423558419275938</v>
+      </c>
+      <c r="E48">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>0.2221299289624556</v>
       </c>
+      <c r="D49">
+        <v>0.07147368752671181</v>
+      </c>
+      <c r="E49">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>0.401118387052915</v>
       </c>
+      <c r="D50">
+        <v>0.1304635629529754</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>0.01529013532386239</v>
       </c>
+      <c r="D51">
+        <v>0.004973109178665206</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>-0.2747739550351629</v>
       </c>
+      <c r="D52">
+        <v>0.08937009705276611</v>
+      </c>
+      <c r="E52">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>-0.2498484382058735</v>
       </c>
+      <c r="D53">
+        <v>0.08126308466202158</v>
+      </c>
+      <c r="E53">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>0.1946232476618731</v>
       </c>
+      <c r="D54">
+        <v>0.06330111793179335</v>
+      </c>
+      <c r="E54">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>-0.07755000499802511</v>
       </c>
+      <c r="D55">
+        <v>0.02522310192110123</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>-0.1038201017825472</v>
       </c>
+      <c r="D56">
+        <v>0.03376743829722487</v>
+      </c>
+      <c r="E56">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>0.2762160849568625</v>
       </c>
+      <c r="D57">
+        <v>0.0898391491179391</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>-0.00733417810353869</v>
       </c>
+      <c r="D58">
+        <v>0.002385437909614272</v>
+      </c>
+      <c r="E58">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>-0.02375740702458369</v>
       </c>
+      <c r="D59">
+        <v>0.007727085237163052</v>
+      </c>
+      <c r="E59">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>0.54714402686351</v>
       </c>
+      <c r="D60">
+        <v>0.177958332245775</v>
+      </c>
+      <c r="E60">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>0.2558305920458698</v>
       </c>
+      <c r="D61">
+        <v>0.08320877732855042</v>
+      </c>
+      <c r="E61">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>-0.3767834061124792</v>
       </c>
+      <c r="D62">
+        <v>0.1225486220767718</v>
+      </c>
+      <c r="E62">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>0.2493712200300598</v>
       </c>
+      <c r="D63">
+        <v>0.08110786967928292</v>
+      </c>
+      <c r="E63">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>0.01978851496425073</v>
       </c>
+      <c r="D64">
+        <v>0.006436204998610175</v>
+      </c>
+      <c r="E64">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>-0.001312867147091917</v>
       </c>
+      <c r="D65">
+        <v>0.0004270094097454684</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>0.1021675670770937</v>
       </c>
+      <c r="D66">
+        <v>0.03039902272008013</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>0.5395388138125823</v>
       </c>
+      <c r="D67">
+        <v>0.1605348265470346</v>
+      </c>
+      <c r="E67">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>0.3676704194397325</v>
       </c>
+      <c r="D68">
+        <v>0.1093969618129009</v>
+      </c>
+      <c r="E68">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>-0.05976380844086304</v>
       </c>
+      <c r="D69">
+        <v>0.01778217317499024</v>
+      </c>
+      <c r="E69">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>0.3009764952148414</v>
       </c>
+      <c r="D70">
+        <v>0.08955279623466114</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>-0.2426464263933086</v>
       </c>
+      <c r="D71">
+        <v>0.07219721913619108</v>
+      </c>
+      <c r="E71">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>-0.1245524323881757</v>
       </c>
+      <c r="D72">
+        <v>0.03705943412699988</v>
+      </c>
+      <c r="E72">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>0.01338664598166622</v>
       </c>
+      <c r="D73">
+        <v>0.003983073757988879</v>
+      </c>
+      <c r="E73">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>0.01823590229577722</v>
       </c>
+      <c r="D74">
+        <v>0.005425925507183588</v>
+      </c>
+      <c r="E74">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>-0.1767990656994565</v>
       </c>
+      <c r="D75">
+        <v>0.05260494077373111</v>
+      </c>
+      <c r="E75">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>-0.210878542816882</v>
       </c>
+      <c r="D76">
+        <v>0.06274497668551254</v>
+      </c>
+      <c r="E76">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>-0.3559414634813097</v>
       </c>
+      <c r="D77">
+        <v>0.1059071185205196</v>
+      </c>
+      <c r="E77">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>-0.2137088325773983</v>
       </c>
+      <c r="D78">
+        <v>0.0635871034503539</v>
+      </c>
+      <c r="E78">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>0.2770825568599424</v>
       </c>
+      <c r="D79">
+        <v>0.08244337398156318</v>
+      </c>
+      <c r="E79">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>-0.2308901613004514</v>
       </c>
+      <c r="D80">
+        <v>0.06869925026128013</v>
+      </c>
+      <c r="E80">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>-0.1266441425637019</v>
       </c>
+      <c r="D81">
+        <v>0.0376818033090091</v>
+      </c>
+      <c r="E81">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>0.09272026851222864</v>
       </c>
+      <c r="D82">
+        <v>0.02645093702085549</v>
+      </c>
+      <c r="E82">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>0.4363785260283948</v>
       </c>
+      <c r="D83">
+        <v>0.1244886484308282</v>
+      </c>
+      <c r="E83">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>0.4003620380279211</v>
       </c>
+      <c r="D84">
+        <v>0.1142139817252709</v>
+      </c>
+      <c r="E84">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>-0.1883067671154457</v>
       </c>
+      <c r="D85">
+        <v>0.05371954285178369</v>
+      </c>
+      <c r="E85">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>-0.1362094449325744</v>
       </c>
+      <c r="D86">
+        <v>0.03885738800553665</v>
+      </c>
+      <c r="E86">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>0.2533099618116233</v>
       </c>
+      <c r="D87">
+        <v>0.0722634430868896</v>
+      </c>
+      <c r="E87">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>0.08087350241743495</v>
       </c>
+      <c r="D88">
+        <v>0.02307133007080803</v>
+      </c>
+      <c r="E88">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>-0.2109082959958317</v>
       </c>
+      <c r="D89">
+        <v>0.06016723359494939</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>-0.3627585900863269</v>
       </c>
+      <c r="D90">
+        <v>0.1034865922425825</v>
+      </c>
+      <c r="E90">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>0.2372750775970412</v>
       </c>
+      <c r="D91">
+        <v>0.06768906340376042</v>
+      </c>
+      <c r="E91">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>0.2270773474266576</v>
       </c>
+      <c r="D92">
+        <v>0.06477988806571748</v>
+      </c>
+      <c r="E92">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>0.3871748747235675</v>
       </c>
+      <c r="D93">
+        <v>0.11045199061325</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>0.06891548818722061</v>
       </c>
+      <c r="D94">
+        <v>0.01965998661405157</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>-0.2459348901088309</v>
       </c>
+      <c r="D95">
+        <v>0.07015950658772893</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>-0.06411393103971832</v>
       </c>
+      <c r="D96">
+        <v>0.01829021398775821</v>
+      </c>
+      <c r="E96">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>-0.1130490076827752</v>
       </c>
+      <c r="D97">
+        <v>0.03225025369822907</v>
+      </c>
+      <c r="E97">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>0.02896432223169451</v>
       </c>
+      <c r="D98">
+        <v>0.009550944546291476</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>-0.1318729697477345</v>
       </c>
+      <c r="D99">
+        <v>0.04348492642569598</v>
+      </c>
+      <c r="E99">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>0.5471992011957397</v>
       </c>
+      <c r="D100">
+        <v>0.1804381675010024</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>-0.01124527010478493</v>
       </c>
+      <c r="D101">
+        <v>0.003708112011726737</v>
+      </c>
+      <c r="E101">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>-0.09658850680714637</v>
       </c>
+      <c r="D102">
+        <v>0.0318499243636602</v>
+      </c>
+      <c r="E102">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>-0.224214382658948</v>
       </c>
+      <c r="D103">
+        <v>0.07393437754650013</v>
+      </c>
+      <c r="E103">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>-0.2050576650130645</v>
       </c>
+      <c r="D104">
+        <v>0.0676174768277053</v>
+      </c>
+      <c r="E104">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>-0.01434642742651647</v>
       </c>
+      <c r="D105">
+        <v>0.004730714279863807</v>
+      </c>
+      <c r="E105">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>0.6057759965766838</v>
       </c>
+      <c r="D106">
+        <v>0.1997537834476673</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>0.2277755244657481</v>
       </c>
+      <c r="D107">
+        <v>0.07510865905207631</v>
+      </c>
+      <c r="E107">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>0.24698185166651</v>
       </c>
+      <c r="D108">
+        <v>0.08144191845186564</v>
+      </c>
+      <c r="E108">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>0.1122049839789908</v>
       </c>
+      <c r="D109">
+        <v>0.03699943576197982</v>
+      </c>
+      <c r="E109">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>0.156149495403811</v>
       </c>
+      <c r="D110">
+        <v>0.05149007663991674</v>
+      </c>
+      <c r="E110">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>0.09714227824021328</v>
       </c>
+      <c r="D111">
+        <v>0.03203252971538339</v>
+      </c>
+      <c r="E111">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>0.1460782076872691</v>
       </c>
+      <c r="D112">
+        <v>0.04816908367067055</v>
+      </c>
+      <c r="E112">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>0.1810162977346284</v>
       </c>
+      <c r="D113">
+        <v>0.05968986975799425</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>-0.3382984703104501</v>
       </c>
+      <c r="D114">
+        <v>0.09870668338111278</v>
+      </c>
+      <c r="E114">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>-0.3112759081399661</v>
       </c>
+      <c r="D115">
+        <v>0.09082220348423162</v>
+      </c>
+      <c r="E115">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>0.1558235798709559</v>
       </c>
+      <c r="D116">
+        <v>0.04546526251661524</v>
+      </c>
+      <c r="E116">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>0.148211479136226</v>
       </c>
+      <c r="D117">
+        <v>0.04324424976299975</v>
+      </c>
+      <c r="E117">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>0.3909424630567353</v>
       </c>
+      <c r="D118">
+        <v>0.1140668294650032</v>
+      </c>
+      <c r="E118">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>-0.2348858549563151</v>
       </c>
+      <c r="D119">
+        <v>0.0685335753797489</v>
+      </c>
+      <c r="E119">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>-0.009586815536646615</v>
       </c>
+      <c r="D120">
+        <v>0.002797183105618315</v>
+      </c>
+      <c r="E120">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>-0.06334237905919497</v>
       </c>
+      <c r="D121">
+        <v>0.01848165659355407</v>
+      </c>
+      <c r="E121">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2191,6 +2921,12 @@
       <c r="C122">
         <v>-0.1384704477182147</v>
       </c>
+      <c r="D122">
+        <v>0.0404020704794199</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2206,6 +2942,12 @@
       <c r="C123">
         <v>-0.2214360011313938</v>
       </c>
+      <c r="D123">
+        <v>0.06460925830612912</v>
+      </c>
+      <c r="E123">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2221,6 +2963,12 @@
       <c r="C124">
         <v>0.09965669560326877</v>
       </c>
+      <c r="D124">
+        <v>0.02907722843290647</v>
+      </c>
+      <c r="E124">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2236,6 +2984,12 @@
       <c r="C125">
         <v>0.4490234858565826</v>
       </c>
+      <c r="D125">
+        <v>0.1310133593227784</v>
+      </c>
+      <c r="E125">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2251,6 +3005,12 @@
       <c r="C126">
         <v>0.1282941863800353</v>
       </c>
+      <c r="D126">
+        <v>0.03743290243976146</v>
+      </c>
+      <c r="E126">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2266,6 +3026,12 @@
       <c r="C127">
         <v>0.09256834002750543</v>
       </c>
+      <c r="D127">
+        <v>0.02700903087686211</v>
+      </c>
+      <c r="E127">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2281,6 +3047,12 @@
       <c r="C128">
         <v>-0.4154318353047982</v>
       </c>
+      <c r="D128">
+        <v>0.1212121905140008</v>
+      </c>
+      <c r="E128">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2296,6 +3068,12 @@
       <c r="C129">
         <v>-0.2300627396439524</v>
       </c>
+      <c r="D129">
+        <v>0.06712631593925809</v>
+      </c>
+      <c r="E129">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2311,6 +3089,12 @@
       <c r="C130">
         <v>0.07739033736352414</v>
       </c>
+      <c r="D130">
+        <v>0.02539053189453818</v>
+      </c>
+      <c r="E130">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2326,6 +3110,12 @@
       <c r="C131">
         <v>-0.3084138921759781</v>
       </c>
+      <c r="D131">
+        <v>0.1011856651978321</v>
+      </c>
+      <c r="E131">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2341,6 +3131,12 @@
       <c r="C132">
         <v>0.4471924329993084</v>
       </c>
+      <c r="D132">
+        <v>0.1467166847939945</v>
+      </c>
+      <c r="E132">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2356,6 +3152,12 @@
       <c r="C133">
         <v>-0.1531958591285665</v>
       </c>
+      <c r="D133">
+        <v>0.05026111113902913</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2371,6 +3173,12 @@
       <c r="C134">
         <v>-0.194601337086695</v>
       </c>
+      <c r="D134">
+        <v>0.06384558621071897</v>
+      </c>
+      <c r="E134">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2386,6 +3194,12 @@
       <c r="C135">
         <v>0.2298362251780933</v>
       </c>
+      <c r="D135">
+        <v>0.07540558944061562</v>
+      </c>
+      <c r="E135">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2401,6 +3215,12 @@
       <c r="C136">
         <v>0.06005754792382518</v>
       </c>
+      <c r="D136">
+        <v>0.01970392090300353</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2416,6 +3236,12 @@
       <c r="C137">
         <v>0.1981837825688483</v>
       </c>
+      <c r="D137">
+        <v>0.06502092927516112</v>
+      </c>
+      <c r="E137">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2431,6 +3257,12 @@
       <c r="C138">
         <v>-0.08723039051339695</v>
       </c>
+      <c r="D138">
+        <v>0.02861889594950034</v>
+      </c>
+      <c r="E138">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2446,6 +3278,12 @@
       <c r="C139">
         <v>-0.6327886017545181</v>
       </c>
+      <c r="D139">
+        <v>0.2076078193053721</v>
+      </c>
+      <c r="E139">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2461,6 +3299,12 @@
       <c r="C140">
         <v>-0.05631531913487397</v>
       </c>
+      <c r="D140">
+        <v>0.0184761554912028</v>
+      </c>
+      <c r="E140">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2476,6 +3320,12 @@
       <c r="C141">
         <v>0.00597772418096948</v>
       </c>
+      <c r="D141">
+        <v>0.00196119569502218</v>
+      </c>
+      <c r="E141">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2491,6 +3341,12 @@
       <c r="C142">
         <v>-0.2870220812183049</v>
       </c>
+      <c r="D142">
+        <v>0.09416735416694196</v>
+      </c>
+      <c r="E142">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2506,6 +3362,12 @@
       <c r="C143">
         <v>-0.1305716629723385</v>
       </c>
+      <c r="D143">
+        <v>0.04283847423547506</v>
+      </c>
+      <c r="E143">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2521,6 +3383,12 @@
       <c r="C144">
         <v>0.1766019984715683</v>
       </c>
+      <c r="D144">
+        <v>0.05794029109562921</v>
+      </c>
+      <c r="E144">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2536,6 +3404,12 @@
       <c r="C145">
         <v>0.002620655657368915</v>
       </c>
+      <c r="D145">
+        <v>0.0008597952059631299</v>
+      </c>
+      <c r="E145">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2551,6 +3425,12 @@
       <c r="C146">
         <v>-0.4188121285582136</v>
       </c>
+      <c r="D146">
+        <v>0.1220514358756118</v>
+      </c>
+      <c r="E146">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2566,6 +3446,12 @@
       <c r="C147">
         <v>0.4398813078422885</v>
       </c>
+      <c r="D147">
+        <v>0.1281914767411776</v>
+      </c>
+      <c r="E147">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2581,6 +3467,12 @@
       <c r="C148">
         <v>-0.2115359702226441</v>
       </c>
+      <c r="D148">
+        <v>0.06164642125789277</v>
+      </c>
+      <c r="E148">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2596,6 +3488,12 @@
       <c r="C149">
         <v>0.2204774704501232</v>
       </c>
+      <c r="D149">
+        <v>0.0642521789884601</v>
+      </c>
+      <c r="E149">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2611,6 +3509,12 @@
       <c r="C150">
         <v>-0.1787547512297031</v>
       </c>
+      <c r="D150">
+        <v>0.05209322407228354</v>
+      </c>
+      <c r="E150">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2626,6 +3530,12 @@
       <c r="C151">
         <v>0.05939448144910012</v>
       </c>
+      <c r="D151">
+        <v>0.0173089107254506</v>
+      </c>
+      <c r="E151">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2641,6 +3551,12 @@
       <c r="C152">
         <v>0.08263541648613347</v>
       </c>
+      <c r="D152">
+        <v>0.02408185090301152</v>
+      </c>
+      <c r="E152">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2656,6 +3572,12 @@
       <c r="C153">
         <v>-0.1270567113616729</v>
       </c>
+      <c r="D153">
+        <v>0.03702723250329615</v>
+      </c>
+      <c r="E153">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2671,6 +3593,12 @@
       <c r="C154">
         <v>0.433462989462205</v>
       </c>
+      <c r="D154">
+        <v>0.1263210319264756</v>
+      </c>
+      <c r="E154">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2686,6 +3614,12 @@
       <c r="C155">
         <v>-0.3408726792434912</v>
       </c>
+      <c r="D155">
+        <v>0.09933809724102136</v>
+      </c>
+      <c r="E155">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2701,6 +3635,12 @@
       <c r="C156">
         <v>0.2130915405526279</v>
       </c>
+      <c r="D156">
+        <v>0.06209975004049898</v>
+      </c>
+      <c r="E156">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2716,6 +3656,12 @@
       <c r="C157">
         <v>0.1895950517518292</v>
       </c>
+      <c r="D157">
+        <v>0.05525233564959962</v>
+      </c>
+      <c r="E157">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2731,6 +3677,12 @@
       <c r="C158">
         <v>-0.2658510729442415</v>
       </c>
+      <c r="D158">
+        <v>0.07747508481576025</v>
+      </c>
+      <c r="E158">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2746,6 +3698,12 @@
       <c r="C159">
         <v>-0.1204455560585571</v>
       </c>
+      <c r="D159">
+        <v>0.03510059059748567</v>
+      </c>
+      <c r="E159">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2761,6 +3719,12 @@
       <c r="C160">
         <v>0.05310295183771058</v>
       </c>
+      <c r="D160">
+        <v>0.0154754150586285</v>
+      </c>
+      <c r="E160">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2776,6 +3740,12 @@
       <c r="C161">
         <v>-0.07646950627497369</v>
       </c>
+      <c r="D161">
+        <v>0.02228496360334598</v>
+      </c>
+      <c r="E161">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2791,6 +3761,12 @@
       <c r="C162">
         <v>0.1535316939234657</v>
       </c>
+      <c r="D162">
+        <v>0.05393546069543101</v>
+      </c>
+      <c r="E162">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2806,6 +3782,12 @@
       <c r="C163">
         <v>0.1460519483962355</v>
       </c>
+      <c r="D163">
+        <v>0.05130783697431937</v>
+      </c>
+      <c r="E163">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2821,6 +3803,12 @@
       <c r="C164">
         <v>-0.1080159467065847</v>
       </c>
+      <c r="D164">
+        <v>0.03794584492096417</v>
+      </c>
+      <c r="E164">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2836,6 +3824,12 @@
       <c r="C165">
         <v>-0.1918778293847395</v>
       </c>
+      <c r="D165">
+        <v>0.06740640229153033</v>
+      </c>
+      <c r="E165">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2851,6 +3845,12 @@
       <c r="C166">
         <v>0.001581428802857295</v>
       </c>
+      <c r="D166">
+        <v>0.0005555536375548036</v>
+      </c>
+      <c r="E166">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2866,6 +3866,12 @@
       <c r="C167">
         <v>-0.02549024744010971</v>
       </c>
+      <c r="D167">
+        <v>0.008954686838850281</v>
+      </c>
+      <c r="E167">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2881,6 +3887,12 @@
       <c r="C168">
         <v>-0.09591890014080605</v>
       </c>
+      <c r="D168">
+        <v>0.03369617006292087</v>
+      </c>
+      <c r="E168">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2896,6 +3908,12 @@
       <c r="C169">
         <v>0.3829235053837641</v>
       </c>
+      <c r="D169">
+        <v>0.1345204703093948</v>
+      </c>
+      <c r="E169">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2911,6 +3929,12 @@
       <c r="C170">
         <v>0.2651561864038032</v>
       </c>
+      <c r="D170">
+        <v>0.09314898249648566</v>
+      </c>
+      <c r="E170">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2926,6 +3950,12 @@
       <c r="C171">
         <v>0.03239923908439103</v>
       </c>
+      <c r="D171">
+        <v>0.01138180555129642</v>
+      </c>
+      <c r="E171">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2941,6 +3971,12 @@
       <c r="C172">
         <v>-0.6118015347205968</v>
       </c>
+      <c r="D172">
+        <v>0.214924989010909</v>
+      </c>
+      <c r="E172">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2956,6 +3992,12 @@
       <c r="C173">
         <v>0.5248431455694967</v>
       </c>
+      <c r="D173">
+        <v>0.184376633421638</v>
+      </c>
+      <c r="E173">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2971,6 +4013,12 @@
       <c r="C174">
         <v>0.05487866211962498</v>
       </c>
+      <c r="D174">
+        <v>0.01927879415729211</v>
+      </c>
+      <c r="E174">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2986,6 +4034,12 @@
       <c r="C175">
         <v>-0.1394025365996704</v>
       </c>
+      <c r="D175">
+        <v>0.048971908284702</v>
+      </c>
+      <c r="E175">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3001,6 +4055,12 @@
       <c r="C176">
         <v>-0.04601367200554368</v>
       </c>
+      <c r="D176">
+        <v>0.01616453602827177</v>
+      </c>
+      <c r="E176">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3016,6 +4076,12 @@
       <c r="C177">
         <v>-0.06669519600386099</v>
       </c>
+      <c r="D177">
+        <v>0.02342992531843949</v>
+      </c>
+      <c r="E177">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3031,6 +4097,12 @@
       <c r="C178">
         <v>-0.5419471681490832</v>
       </c>
+      <c r="D178">
+        <v>0.2009311840830294</v>
+      </c>
+      <c r="E178">
+        <v>20.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3046,6 +4118,12 @@
       <c r="C179">
         <v>0.1440099619828339</v>
       </c>
+      <c r="D179">
+        <v>0.0533928284555643</v>
+      </c>
+      <c r="E179">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3061,6 +4139,12 @@
       <c r="C180">
         <v>0.1110022308451848</v>
       </c>
+      <c r="D180">
+        <v>0.04115495197761644</v>
+      </c>
+      <c r="E180">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3076,6 +4160,12 @@
       <c r="C181">
         <v>0.02105954062706166</v>
       </c>
+      <c r="D181">
+        <v>0.007807990673504401</v>
+      </c>
+      <c r="E181">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3091,6 +4181,12 @@
       <c r="C182">
         <v>-0.0748635403412936</v>
       </c>
+      <c r="D182">
+        <v>0.0277562476371973</v>
+      </c>
+      <c r="E182">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3106,6 +4202,12 @@
       <c r="C183">
         <v>-0.0405149013450805</v>
       </c>
+      <c r="D183">
+        <v>0.01502121900198717</v>
+      </c>
+      <c r="E183">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3121,6 +4223,12 @@
       <c r="C184">
         <v>-0.04429867140528808</v>
       </c>
+      <c r="D184">
+        <v>0.01642408157453646</v>
+      </c>
+      <c r="E184">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3136,6 +4244,12 @@
       <c r="C185">
         <v>0.7025682500197288</v>
       </c>
+      <c r="D185">
+        <v>0.2604827161616837</v>
+      </c>
+      <c r="E185">
+        <v>26</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3151,6 +4265,12 @@
       <c r="C186">
         <v>-0.266958763704004</v>
       </c>
+      <c r="D186">
+        <v>0.09897706574532988</v>
+      </c>
+      <c r="E186">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3166,6 +4286,12 @@
       <c r="C187">
         <v>0.1943321407655857</v>
       </c>
+      <c r="D187">
+        <v>0.07205017286607096</v>
+      </c>
+      <c r="E187">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3181,6 +4307,12 @@
       <c r="C188">
         <v>0.1156610878301897</v>
       </c>
+      <c r="D188">
+        <v>0.04288225992475018</v>
+      </c>
+      <c r="E188">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3196,6 +4328,12 @@
       <c r="C189">
         <v>-0.06393027813117497</v>
       </c>
+      <c r="D189">
+        <v>0.02370265449956317</v>
+      </c>
+      <c r="E189">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3211,6 +4349,12 @@
       <c r="C190">
         <v>0.01927134381661514</v>
       </c>
+      <c r="D190">
+        <v>0.007145002611912249</v>
+      </c>
+      <c r="E190">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3226,6 +4370,12 @@
       <c r="C191">
         <v>0.09761731368226625</v>
       </c>
+      <c r="D191">
+        <v>0.03619238844290185</v>
+      </c>
+      <c r="E191">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3241,6 +4391,12 @@
       <c r="C192">
         <v>0.1281012887196898</v>
       </c>
+      <c r="D192">
+        <v>0.04749456245507801</v>
+      </c>
+      <c r="E192">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3256,6 +4412,12 @@
       <c r="C193">
         <v>0.1310415132917284</v>
       </c>
+      <c r="D193">
+        <v>0.04858467388927449</v>
+      </c>
+      <c r="E193">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3271,6 +4433,12 @@
       <c r="C194">
         <v>-0.1274273929508563</v>
       </c>
+      <c r="D194">
+        <v>0.04088855365363891</v>
+      </c>
+      <c r="E194">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3286,6 +4454,12 @@
       <c r="C195">
         <v>0.06973925317330917</v>
       </c>
+      <c r="D195">
+        <v>0.02237774099515074</v>
+      </c>
+      <c r="E195">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3301,6 +4475,12 @@
       <c r="C196">
         <v>-0.1009702935003442</v>
       </c>
+      <c r="D196">
+        <v>0.03239907187620718</v>
+      </c>
+      <c r="E196">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3316,6 +4496,12 @@
       <c r="C197">
         <v>-0.5258662925730454</v>
       </c>
+      <c r="D197">
+        <v>0.1687385390267348</v>
+      </c>
+      <c r="E197">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3331,6 +4517,12 @@
       <c r="C198">
         <v>0.3807285750394094</v>
       </c>
+      <c r="D198">
+        <v>0.1221671448145857</v>
+      </c>
+      <c r="E198">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3346,6 +4538,12 @@
       <c r="C199">
         <v>0.04900346562694335</v>
       </c>
+      <c r="D199">
+        <v>0.01572409814798819</v>
+      </c>
+      <c r="E199">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3361,6 +4559,12 @@
       <c r="C200">
         <v>-0.06321462154897223</v>
       </c>
+      <c r="D200">
+        <v>0.02028413502814475</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3376,6 +4580,12 @@
       <c r="C201">
         <v>0.07198785633778684</v>
       </c>
+      <c r="D201">
+        <v>0.02309926663424112</v>
+      </c>
+      <c r="E201">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3391,6 +4601,12 @@
       <c r="C202">
         <v>0.1665421106723399</v>
       </c>
+      <c r="D202">
+        <v>0.05343957739481067</v>
+      </c>
+      <c r="E202">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3406,6 +4622,12 @@
       <c r="C203">
         <v>-0.2044870131791929</v>
       </c>
+      <c r="D203">
+        <v>0.06561523402644179</v>
+      </c>
+      <c r="E203">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3421,6 +4643,12 @@
       <c r="C204">
         <v>0.2110036412959592</v>
       </c>
+      <c r="D204">
+        <v>0.06770627184980815</v>
+      </c>
+      <c r="E204">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3436,6 +4664,12 @@
       <c r="C205">
         <v>-0.244708832778666</v>
       </c>
+      <c r="D205">
+        <v>0.07852150159305755</v>
+      </c>
+      <c r="E205">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3451,6 +4685,12 @@
       <c r="C206">
         <v>0.4037025990092104</v>
       </c>
+      <c r="D206">
+        <v>0.1295389868493001</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3466,6 +4706,12 @@
       <c r="C207">
         <v>-0.4441888396289347</v>
       </c>
+      <c r="D207">
+        <v>0.1425301011103614</v>
+      </c>
+      <c r="E207">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3481,6 +4727,12 @@
       <c r="C208">
         <v>0.02682543104176581</v>
       </c>
+      <c r="D208">
+        <v>0.008607671011964003</v>
+      </c>
+      <c r="E208">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3496,6 +4748,12 @@
       <c r="C209">
         <v>-0.02606013836048926</v>
       </c>
+      <c r="D209">
+        <v>0.008362105987564726</v>
+      </c>
+      <c r="E209">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3511,6 +4769,12 @@
       <c r="C210">
         <v>0.06992381320672131</v>
       </c>
+      <c r="D210">
+        <v>0.02363770935153267</v>
+      </c>
+      <c r="E210">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3526,6 +4790,12 @@
       <c r="C211">
         <v>0.003121360431168524</v>
       </c>
+      <c r="D211">
+        <v>0.001055174299994328</v>
+      </c>
+      <c r="E211">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3541,6 +4811,12 @@
       <c r="C212">
         <v>0.08606285547449211</v>
       </c>
+      <c r="D212">
+        <v>0.02909350434958059</v>
+      </c>
+      <c r="E212">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3556,6 +4832,12 @@
       <c r="C213">
         <v>0.3309295024672926</v>
       </c>
+      <c r="D213">
+        <v>0.1118705493369355</v>
+      </c>
+      <c r="E213">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3571,6 +4853,12 @@
       <c r="C214">
         <v>0.4346887286404349</v>
       </c>
+      <c r="D214">
+        <v>0.1469463027654531</v>
+      </c>
+      <c r="E214">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3586,6 +4874,12 @@
       <c r="C215">
         <v>-0.30657262427089</v>
       </c>
+      <c r="D215">
+        <v>0.1036367190992289</v>
+      </c>
+      <c r="E215">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3601,6 +4895,12 @@
       <c r="C216">
         <v>0.02077046838622306</v>
       </c>
+      <c r="D216">
+        <v>0.007021446232591122</v>
+      </c>
+      <c r="E216">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3616,6 +4916,12 @@
       <c r="C217">
         <v>-0.0229657048071562</v>
       </c>
+      <c r="D217">
+        <v>0.007763544783802978</v>
+      </c>
+      <c r="E217">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3631,6 +4937,12 @@
       <c r="C218">
         <v>-0.1187832777742089</v>
       </c>
+      <c r="D218">
+        <v>0.04015462640099882</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3646,6 +4958,12 @@
       <c r="C219">
         <v>0.1269443755995386</v>
       </c>
+      <c r="D219">
+        <v>0.04291348135380658</v>
+      </c>
+      <c r="E219">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3661,6 +4979,12 @@
       <c r="C220">
         <v>-0.05356868024039161</v>
       </c>
+      <c r="D220">
+        <v>0.01810886500317253</v>
+      </c>
+      <c r="E220">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3676,6 +5000,12 @@
       <c r="C221">
         <v>0.05626644335105575</v>
       </c>
+      <c r="D221">
+        <v>0.01902084244525854</v>
+      </c>
+      <c r="E221">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3691,6 +5021,12 @@
       <c r="C222">
         <v>-0.3000300274205288</v>
       </c>
+      <c r="D222">
+        <v>0.1014249975746049</v>
+      </c>
+      <c r="E222">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3706,6 +5042,12 @@
       <c r="C223">
         <v>-0.5073821161448231</v>
       </c>
+      <c r="D223">
+        <v>0.1715202652941714</v>
+      </c>
+      <c r="E223">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3721,6 +5063,12 @@
       <c r="C224">
         <v>0.4540970537249382</v>
       </c>
+      <c r="D224">
+        <v>0.1535072771504063</v>
+      </c>
+      <c r="E224">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3736,6 +5084,12 @@
       <c r="C225">
         <v>0.06603972275772876</v>
       </c>
+      <c r="D225">
+        <v>0.0223246945584618</v>
+      </c>
+      <c r="E225">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3751,6 +5105,12 @@
       <c r="C226">
         <v>-2.574173177673224E-16</v>
       </c>
+      <c r="D226">
+        <v>1.278563448736964E-16</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3766,6 +5126,12 @@
       <c r="C227">
         <v>-8.188581693317049E-17</v>
       </c>
+      <c r="D227">
+        <v>4.06717828500382E-17</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3781,6 +5147,12 @@
       <c r="C228">
         <v>-1.635054186920179E-16</v>
       </c>
+      <c r="D228">
+        <v>8.121133955680803E-17</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3796,6 +5168,12 @@
       <c r="C229">
         <v>-0.03919486890003752</v>
       </c>
+      <c r="D229">
+        <v>0.01946765943654266</v>
+      </c>
+      <c r="E229">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3811,6 +5189,12 @@
       <c r="C230">
         <v>-0.0281356444204579</v>
       </c>
+      <c r="D230">
+        <v>0.01397466451545171</v>
+      </c>
+      <c r="E230">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3826,6 +5210,12 @@
       <c r="C231">
         <v>-0.07556125896926084</v>
       </c>
+      <c r="D231">
+        <v>0.03753044460900255</v>
+      </c>
+      <c r="E231">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3841,6 +5231,12 @@
       <c r="C232">
         <v>0.09802246505428844</v>
       </c>
+      <c r="D232">
+        <v>0.04868667813825664</v>
+      </c>
+      <c r="E232">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3856,6 +5252,12 @@
       <c r="C233">
         <v>2.860044341529689E-16</v>
       </c>
+      <c r="D233">
+        <v>1.420552505388214E-16</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3871,6 +5273,12 @@
       <c r="C234">
         <v>-2.480216979900298E-16</v>
       </c>
+      <c r="D234">
+        <v>1.23189644074516E-16</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3886,6 +5294,12 @@
       <c r="C235">
         <v>4.056220443838378E-18</v>
       </c>
+      <c r="D235">
+        <v>2.014679992975098E-18</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3901,6 +5315,12 @@
       <c r="C236">
         <v>-1.453761200156479E-16</v>
       </c>
+      <c r="D236">
+        <v>7.22067166977532E-17</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3916,6 +5336,12 @@
       <c r="C237">
         <v>1.58828231983987E-16</v>
       </c>
+      <c r="D237">
+        <v>7.888823246375222E-17</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3931,6 +5357,12 @@
       <c r="C238">
         <v>0.2064886841611175</v>
       </c>
+      <c r="D238">
+        <v>0.1025606538192709</v>
+      </c>
+      <c r="E238">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3946,6 +5378,12 @@
       <c r="C239">
         <v>0.2649313590518215</v>
       </c>
+      <c r="D239">
+        <v>0.1315884863713966</v>
+      </c>
+      <c r="E239">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3961,6 +5399,12 @@
       <c r="C240">
         <v>0.5427260770987411</v>
       </c>
+      <c r="D240">
+        <v>0.2695660613953214</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3976,6 +5420,12 @@
       <c r="C241">
         <v>-0.7582720117438015</v>
       </c>
+      <c r="D241">
+        <v>0.3766253517147566</v>
+      </c>
+      <c r="E241">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3991,6 +5441,12 @@
       <c r="C242">
         <v>2.490152604556017E-16</v>
       </c>
+      <c r="D242">
+        <v>1.223614511101318E-16</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4006,6 +5462,12 @@
       <c r="C243">
         <v>1.719200685793912E-16</v>
       </c>
+      <c r="D243">
+        <v>8.447831280636865E-17</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4021,6 +5483,12 @@
       <c r="C244">
         <v>-1.78608856878661E-16</v>
       </c>
+      <c r="D244">
+        <v>8.776505853018363E-17</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4036,6 +5504,12 @@
       <c r="C245">
         <v>-0.2924442570768865</v>
       </c>
+      <c r="D245">
+        <v>0.1437016494462289</v>
+      </c>
+      <c r="E245">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4051,6 +5525,12 @@
       <c r="C246">
         <v>-0.2099281834799649</v>
       </c>
+      <c r="D246">
+        <v>0.1031547910458379</v>
+      </c>
+      <c r="E246">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4066,6 +5546,12 @@
       <c r="C247">
         <v>-0.5637844152360055</v>
       </c>
+      <c r="D247">
+        <v>0.2770331385929439</v>
+      </c>
+      <c r="E247">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4081,6 +5567,12 @@
       <c r="C248">
         <v>0.7313739725155394</v>
       </c>
+      <c r="D248">
+        <v>0.3593835189756938</v>
+      </c>
+      <c r="E248">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4096,6 +5588,12 @@
       <c r="C249">
         <v>1.532547900275751E-16</v>
       </c>
+      <c r="D249">
+        <v>7.530654331402365E-17</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4111,6 +5609,12 @@
       <c r="C250">
         <v>-3.143911964798307E-16</v>
       </c>
+      <c r="D250">
+        <v>1.544859658285142E-16</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4126,6 +5630,12 @@
       <c r="C251">
         <v>-1.276709464077338E-16</v>
       </c>
+      <c r="D251">
+        <v>6.273512008248791E-17</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4141,6 +5651,12 @@
       <c r="C252">
         <v>-3.279711754039117E-16</v>
       </c>
+      <c r="D252">
+        <v>1.611589140010694E-16</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4156,6 +5672,12 @@
       <c r="C253">
         <v>-8.928353730557527E-17</v>
       </c>
+      <c r="D253">
+        <v>4.387226375189818E-17</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4171,6 +5693,12 @@
       <c r="C254">
         <v>-0.02767466520263572</v>
       </c>
+      <c r="D254">
+        <v>0.0135988139320696</v>
+      </c>
+      <c r="E254">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4186,6 +5714,12 @@
       <c r="C255">
         <v>-0.03550745016960706</v>
       </c>
+      <c r="D255">
+        <v>0.01744769826565896</v>
+      </c>
+      <c r="E255">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4201,6 +5735,12 @@
       <c r="C256">
         <v>-0.07273891323133139</v>
       </c>
+      <c r="D256">
+        <v>0.03574254428774892</v>
+      </c>
+      <c r="E256">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4215,6 +5755,12 @@
       </c>
       <c r="C257">
         <v>0.1016274772769858</v>
+      </c>
+      <c r="D257">
+        <v>0.0499378454538174</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
